--- a/data/patients_update.xlsx
+++ b/data/patients_update.xlsx
@@ -1,12 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a19356415/Documents/master_diploma/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E5B292-03CF-4941-BE8B-C740C2402F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$254</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjIdilY1JS/gmNZ0jfDurTubVSFjQ=="/>
@@ -16,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="322">
   <si>
     <t>patient_description</t>
   </si>
@@ -179,17 +191,6 @@
   </si>
   <si>
     <t>A 73-year-old man presented, 8 days after COVID-19 symptom onset, with dysphasia and right hemiparesis. MRI brain showed a thrombus in the basilar artery, bilateral P2 segment stenosis and multiple acute infarcts (right thalamus, left pons, right occipital lobe and right cerebellar hemisphere) (online supplementary figure S2 C, D, E, F). He received intravenous thrombolysis, after which D-dimer was 1080 µg/L.</t>
-  </si>
-  <si>
-    <t>The first patient was a 29-year-old female (gravida 2, para 1) at 6 weeks gestation and with no underlying medical conditions. She was asymptomatic and identified as part of the contact tracing of her mother, a positive MERS-CoV patient. On examination, she was afebrile, breathing normally and Lungs were clear to auscultation. The abdomen was gravid, soft, non-tender, non-distended, and normal bowel sounds. Nasopharyngeal swab testing by RT-PCR for MERS-CoV showed a positive result for ORF (Ct value 32). She had two repeated nasopharyngeal swab testing by RT-PCR for MERS-CoV and these showed probable results (Ct value 36) and the 4th swab was negative by PCR for MERS-CoV. The patient did not deliver during hospitalization and she was discharged on 24th August 2015, and subsequently delivered a healthy infant at term.</t>
-  </si>
-  <si>
-    <t>PMC7128238</t>
-  </si>
-  <si>
-    <t>The second patient was a 39-year-old female (gravida 6, para 5) with history of end stage renal disease (ESRD) and hypertension on hemodialysis. She used to have hemodialysis at Wadi Aldawasir hospital during an active MERS-CoV outbreak there. She presented at 24 weeks of gestation after a contact with a positive MERS-CoV patient. Nasopharyngeal swab testing by RT-PCR was positive for MERS-CoV with E gene (Ct value 34) and OFR (Ct value 34). She was admitted to a regular ward. Subsequently, she had negative RT-PCR for MERS-CoV and she was discharged home.
-Respiratory samples (Nasopharyngeal swabs or tracheal aspirates) were tested for MERS-CoV using real-time reverse-transcription polymerase chain reaction (RT-PCR) as described previously.
-The clinical presentation of MERS-CoV is variable and ranges from a mild disease or asymptomatic presentation to a more severe and fatal cases. There are sparse data on the effect and the likelihood of MERS-CoV during pregnancy.2, 3, 4, 5, 6, 7 We searched the MEDLINE database for articles published in English literature from January 2012 to July 2016. The references in the retrieved articles were further searched for any additional references. A summary of previous reports and the current two additional cases of pregnancy associated MERS-CoV is presented in Table 1 . Of all the cases, the mean age ± SD was 33.7 ± 4.3 years and the gestation age was 26.3 ± 9 weeks, and there were four (36%) primi-gravida. The source of infection was not identified in 3 cases; contact with family members who had MERS-CoV was elucidated in two cases; four patients had health-care associated infection, two of them were healthcare workers. Six (54%) patients required ICU admission and three (27%) patients died during the hospital stay. Two of the deceased had an exposure during the third trimester and one acquired the infection during the second trimester. The infant death rate was 27%. The outcome was favorable in the majority of pregnancy-associated MERS-CoV cases. The exact prevalence of MERS-CoV antibodies and exposure of pregnant women to MERS-CoV is not known. All the reported cases were symptomatic. Among the 11 pregnancy-associated MERS-CoV infection, the case fatality rate was not statistically different when compared to the overall case fatality rate of 35%, P = 0.75. Regarding the infants, three (27%) infants had died.</t>
   </si>
   <si>
     <t>A 53-year-old Asian male patient presented to the emergency department with a history of fever for 10 days with fatigue, myalgia, ageusia, hyposmia, and one episode of vomiting. The patient also complained of polydipsia, polyuria, and nocturia for 1 week with generalized weakness and mild breathlessness with non-productive cough for 2 days. He had a history of Hypertension and Diabetes mellitus but was not on medications. He was managing his blood glucose by lifestyle modification with diet and exercise.
@@ -1231,28 +1232,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1266,35 +1278,39 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1484,23 +1500,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="25" width="7.63"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="2" max="25" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1519,10 +1538,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1530,10 +1549,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1541,10 +1560,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1552,10 +1571,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>73.0</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1563,10 +1582,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1574,10 +1593,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>74.0</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1585,10 +1604,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1596,10 +1615,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="2">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1607,10 +1626,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>81.0</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1618,10 +1637,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>66.0</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1629,10 +1648,10 @@
         <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1640,10 +1659,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1651,10 +1670,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1662,10 +1681,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1673,10 +1692,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1684,10 +1703,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1695,10 +1714,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1706,10 +1725,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1717,10 +1736,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1728,10 +1747,10 @@
         <v>28</v>
       </c>
       <c r="C21" s="2">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1739,10 +1758,10 @@
         <v>28</v>
       </c>
       <c r="C22" s="2">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1750,10 +1769,10 @@
         <v>28</v>
       </c>
       <c r="C23" s="2">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1761,10 +1780,10 @@
         <v>28</v>
       </c>
       <c r="C24" s="2">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1772,10 +1791,10 @@
         <v>33</v>
       </c>
       <c r="C25" s="2">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -1783,10 +1802,10 @@
         <v>33</v>
       </c>
       <c r="C26" s="2">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -1794,10 +1813,10 @@
         <v>33</v>
       </c>
       <c r="C27" s="2">
-        <v>73.0</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -1805,10 +1824,10 @@
         <v>37</v>
       </c>
       <c r="C28" s="2">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -1816,10 +1835,10 @@
         <v>37</v>
       </c>
       <c r="C29" s="2">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
@@ -1827,10 +1846,10 @@
         <v>37</v>
       </c>
       <c r="C30" s="2">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
@@ -1838,10 +1857,10 @@
         <v>37</v>
       </c>
       <c r="C31" s="2">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
@@ -1849,10 +1868,10 @@
         <v>37</v>
       </c>
       <c r="C32" s="2">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
@@ -1860,10 +1879,10 @@
         <v>43</v>
       </c>
       <c r="C33" s="2">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -1871,10 +1890,10 @@
         <v>43</v>
       </c>
       <c r="C34" s="2">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -1882,10 +1901,10 @@
         <v>43</v>
       </c>
       <c r="C35" s="2">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -1893,10 +1912,10 @@
         <v>43</v>
       </c>
       <c r="C36" s="2">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
@@ -1904,10 +1923,10 @@
         <v>43</v>
       </c>
       <c r="C37" s="2">
-        <v>83.0</v>
-      </c>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
@@ -1915,10 +1934,10 @@
         <v>43</v>
       </c>
       <c r="C38" s="2">
-        <v>73.0</v>
-      </c>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
@@ -1926,10 +1945,10 @@
         <v>50</v>
       </c>
       <c r="C39" s="2">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
@@ -1937,10 +1956,10 @@
         <v>50</v>
       </c>
       <c r="C40" s="2">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
@@ -1948,10 +1967,10 @@
         <v>53</v>
       </c>
       <c r="C41" s="2">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>54</v>
       </c>
@@ -1959,296 +1978,296 @@
         <v>53</v>
       </c>
       <c r="C42" s="2">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="2">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="2">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="2">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="2">
-        <v>74.0</v>
-      </c>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="2">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="2">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="2">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C50" s="2">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="2">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="2" t="s">
+      <c r="B53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="2">
-        <v>72.0</v>
-      </c>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C54" s="2">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C56" s="2">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="2">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="2" t="s">
+      <c r="B58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="2">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C59" s="2">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="2">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C62" s="2">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="2">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="2">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="2">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C67" s="2">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>87</v>
       </c>
@@ -2256,10 +2275,10 @@
         <v>88</v>
       </c>
       <c r="C69" s="2">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>89</v>
       </c>
@@ -2267,230 +2286,230 @@
         <v>88</v>
       </c>
       <c r="C70" s="2">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C71" s="2">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c r="A72" s="2" t="s">
+      <c r="B72" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C72" s="2">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c r="A73" s="2" t="s">
+      <c r="B73" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" s="2">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c r="A74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="2">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c r="A75" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C75" s="2">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C77" s="2">
-        <v>63.0</v>
-      </c>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C78" s="2">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" s="2">
-        <v>81.0</v>
-      </c>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c r="A80" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C80" s="2">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C82" s="2">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c r="A83" s="2" t="s">
+      <c r="B83" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" s="2">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c r="A84" s="2" t="s">
+      <c r="B84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C84" s="2">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c r="A85" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C85" s="2">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C86" s="2">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C87" s="2">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c r="A88" s="2" t="s">
+      <c r="B88" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C88" s="2">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c r="A89" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C89" s="2">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C90" s="2">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>114</v>
       </c>
@@ -2498,10 +2517,10 @@
         <v>115</v>
       </c>
       <c r="C91" s="2">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>116</v>
       </c>
@@ -2509,10 +2528,10 @@
         <v>115</v>
       </c>
       <c r="C92" s="2">
-        <v>81.0</v>
-      </c>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>117</v>
       </c>
@@ -2520,10 +2539,10 @@
         <v>118</v>
       </c>
       <c r="C93" s="2">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>119</v>
       </c>
@@ -2531,571 +2550,571 @@
         <v>118</v>
       </c>
       <c r="C94" s="2">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C95" s="2">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="2" t="s">
+      <c r="B96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C96" s="2">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="2" t="s">
+      <c r="B97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C97" s="2">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="2" t="s">
+      <c r="B98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C98" s="2">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="2" t="s">
+      <c r="B99" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C99" s="2">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="2" t="s">
+      <c r="B100" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C100" s="2">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C101" s="2">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C102" s="2">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C103" s="2">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C104" s="2">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="2" t="s">
+      <c r="B105" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C105" s="2">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="2" t="s">
+      <c r="B106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C106" s="2">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="2" t="s">
+      <c r="B107" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C107" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C107" s="2">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="2" t="s">
+      <c r="B108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C108" s="2">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C109" s="2">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C110" s="2">
-        <v>71.0</v>
-      </c>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C111" s="2">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="2" t="s">
+      <c r="B112" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C112" s="2">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c r="A113" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C113" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C114" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C115" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C115" s="2">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c r="A116" s="2" t="s">
+      <c r="B116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C116" s="2">
-        <v>72.0</v>
-      </c>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="C117" s="2">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C118" s="2">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C119" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C119" s="2">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="2" t="s">
+      <c r="B120" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C120" s="2">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="2" t="s">
+      <c r="B121" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C121" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C121" s="2">
-        <v>63.0</v>
-      </c>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="C122" s="2">
-        <v>63.0</v>
-      </c>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C123" s="2">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C124" s="2">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="C125" s="2">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C126" s="2">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C127" s="2">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="2" t="s">
+      <c r="B128" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C128" s="2">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="2" t="s">
+      <c r="B129" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C129" s="2">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="2" t="s">
+      <c r="B130" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C130" s="2">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C131" s="2">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C132" s="2">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C133" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C133" s="2">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c r="A134" s="2" t="s">
+      <c r="B134" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C134" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C134" s="2">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c r="A135" s="2" t="s">
+      <c r="B135" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C135" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C135" s="2">
-        <v>63.0</v>
-      </c>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c r="A136" s="2" t="s">
+      <c r="B136" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="C136" s="2">
-        <v>81.0</v>
-      </c>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C137" s="2">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C138" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C138" s="2">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c r="A139" s="2" t="s">
+      <c r="B139" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C139" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C139" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="140" ht="16.5" customHeight="1">
-      <c r="A140" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="C140" s="2">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="141" ht="16.5" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C141" s="2">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="142" ht="16.5" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C142" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C142" s="2">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="143" ht="16.5" customHeight="1">
-      <c r="A143" s="2" t="s">
+      <c r="B143" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C143" s="2">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C144" s="2">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="145" ht="16.5" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C145" s="2">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="146" ht="16.5" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>182</v>
       </c>
@@ -3103,10 +3122,10 @@
         <v>183</v>
       </c>
       <c r="C146" s="2">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="147" ht="16.5" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>184</v>
       </c>
@@ -3114,109 +3133,109 @@
         <v>183</v>
       </c>
       <c r="C147" s="2">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="148" ht="16.5" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C148" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C148" s="2">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="2" t="s">
+      <c r="B149" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C149" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C149" s="2">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C150" s="2">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="151" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C151" s="2">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="152" ht="16.5" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C152" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C152" s="2">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="2" t="s">
+      <c r="B153" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C153" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C153" s="2">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="2" t="s">
+      <c r="B154" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C154" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C154" s="2">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="2" t="s">
+      <c r="B155" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="C155" s="2">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="156" ht="16.5" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C156" s="2">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="157" ht="16.5" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>196</v>
       </c>
@@ -3224,10 +3243,10 @@
         <v>197</v>
       </c>
       <c r="C157" s="2">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="158" ht="16.5" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
         <v>198</v>
       </c>
@@ -3235,10 +3254,10 @@
         <v>197</v>
       </c>
       <c r="C158" s="2">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="159" ht="16.5" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
         <v>199</v>
       </c>
@@ -3246,10 +3265,10 @@
         <v>200</v>
       </c>
       <c r="C159" s="2">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="160" ht="16.5" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
         <v>201</v>
       </c>
@@ -3257,98 +3276,98 @@
         <v>200</v>
       </c>
       <c r="C160" s="2">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="161" ht="16.5" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C161" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C161" s="2">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="162" ht="16.5" customHeight="1">
-      <c r="A162" s="2" t="s">
+      <c r="B162" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C162" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C162" s="2">
-        <v>74.0</v>
-      </c>
-    </row>
-    <row r="163" ht="16.5" customHeight="1">
-      <c r="A163" s="2" t="s">
+      <c r="B163" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C163" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C163" s="2">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="164" ht="16.5" customHeight="1">
-      <c r="A164" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="C164" s="2">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="165" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C165" s="2">
-        <v>79.0</v>
-      </c>
-    </row>
-    <row r="166" ht="16.5" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C166" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C166" s="2">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="167" ht="16.5" customHeight="1">
-      <c r="A167" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="C167" s="2">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="168" ht="16.5" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C168" s="2">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="169" ht="16.5" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>212</v>
       </c>
@@ -3356,10 +3375,10 @@
         <v>213</v>
       </c>
       <c r="C169" s="2">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="170" ht="16.5" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
         <v>214</v>
       </c>
@@ -3367,142 +3386,142 @@
         <v>213</v>
       </c>
       <c r="C170" s="2">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="171" ht="16.5" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C171" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C171" s="2">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="172" ht="16.5" customHeight="1">
-      <c r="A172" s="2" t="s">
+      <c r="B172" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C172" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C172" s="2">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="173" ht="16.5" customHeight="1">
-      <c r="A173" s="2" t="s">
+      <c r="B173" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C173" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C173" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="174" ht="16.5" customHeight="1">
-      <c r="A174" s="2" t="s">
+      <c r="B174" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C174" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C174" s="2">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="175" ht="16.5" customHeight="1">
-      <c r="A175" s="2" t="s">
+      <c r="B175" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C175" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C175" s="2">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="176" ht="16.5" customHeight="1">
-      <c r="A176" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="C176" s="2">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="177" ht="16.5" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C177" s="2">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="178" ht="16.5" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C178" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C178" s="2">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="179" ht="16.5" customHeight="1">
-      <c r="A179" s="2" t="s">
+      <c r="B179" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C179" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C179" s="2">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="180" ht="16.5" customHeight="1">
-      <c r="A180" s="2" t="s">
+      <c r="B180" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C180" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C180" s="2">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="181" ht="16.5" customHeight="1">
-      <c r="A181" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="C181" s="2">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="182" ht="16.5" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C182" s="2">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="183" ht="16.5" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
         <v>229</v>
       </c>
@@ -3510,10 +3529,10 @@
         <v>230</v>
       </c>
       <c r="C183" s="2">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="184" ht="16.5" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
         <v>231</v>
       </c>
@@ -3521,10 +3540,10 @@
         <v>230</v>
       </c>
       <c r="C184" s="2">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="185" ht="16.5" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
         <v>232</v>
       </c>
@@ -3532,10 +3551,10 @@
         <v>233</v>
       </c>
       <c r="C185" s="2">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="186" ht="16.5" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
         <v>234</v>
       </c>
@@ -3543,175 +3562,175 @@
         <v>233</v>
       </c>
       <c r="C186" s="2">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="187" ht="16.5" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C187" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C187" s="2">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="188" ht="16.5" customHeight="1">
-      <c r="A188" s="2" t="s">
+      <c r="B188" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C188" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C188" s="2">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="189" ht="16.5" customHeight="1">
-      <c r="A189" s="2" t="s">
+      <c r="B189" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C189" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C189" s="2">
-        <v>81.0</v>
-      </c>
-    </row>
-    <row r="190" ht="16.5" customHeight="1">
-      <c r="A190" s="2" t="s">
+      <c r="B190" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C190" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C190" s="2">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="191" ht="16.5" customHeight="1">
-      <c r="A191" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="C191" s="2">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="192" ht="16.5" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C192" s="2">
-        <v>76.0</v>
-      </c>
-    </row>
-    <row r="193" ht="16.5" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C193" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C193" s="2">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="194" ht="16.5" customHeight="1">
-      <c r="A194" s="2" t="s">
+      <c r="B194" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="C194" s="2">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="195" ht="16.5" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C195" s="2">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="196" ht="16.5" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C196" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C196" s="2">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="197" ht="16.5" customHeight="1">
-      <c r="A197" s="2" t="s">
+      <c r="B197" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C197" s="2">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="198" ht="16.5" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C198" s="2">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="199" ht="16.5" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C199" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C199" s="2">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="200" ht="16.5" customHeight="1">
-      <c r="A200" s="2" t="s">
+      <c r="B200" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="C200" s="2">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="201" ht="16.5" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C201" s="2">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="202" ht="16.5" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
         <v>254</v>
       </c>
@@ -3719,10 +3738,10 @@
         <v>255</v>
       </c>
       <c r="C202" s="2">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="203" ht="16.5" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
         <v>256</v>
       </c>
@@ -3730,10 +3749,10 @@
         <v>255</v>
       </c>
       <c r="C203" s="2">
-        <v>73.0</v>
-      </c>
-    </row>
-    <row r="204" ht="16.5" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
         <v>257</v>
       </c>
@@ -3741,10 +3760,10 @@
         <v>258</v>
       </c>
       <c r="C204" s="2">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="205" ht="16.5" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
         <v>259</v>
       </c>
@@ -3752,340 +3771,340 @@
         <v>258</v>
       </c>
       <c r="C205" s="2">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="206" ht="16.5" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C206" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C206" s="2">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="207" ht="16.5" customHeight="1">
-      <c r="A207" s="2" t="s">
+      <c r="B207" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C207" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C207" s="2">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="208" ht="16.5" customHeight="1">
-      <c r="A208" s="2" t="s">
+      <c r="B208" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="C208" s="2">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="209" ht="16.5" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C209" s="2">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="210" ht="16.5" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C210" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C210" s="2">
-        <v>73.0</v>
-      </c>
-    </row>
-    <row r="211" ht="16.5" customHeight="1">
-      <c r="A211" s="2" t="s">
+      <c r="B211" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C211" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C211" s="2">
-        <v>83.0</v>
-      </c>
-    </row>
-    <row r="212" ht="16.5" customHeight="1">
-      <c r="A212" s="2" t="s">
+      <c r="B212" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="C212" s="2">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="213" ht="16.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C213" s="2">
-        <v>88.0</v>
-      </c>
-    </row>
-    <row r="214" ht="16.5" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C214" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C214" s="2">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="215" ht="16.5" customHeight="1">
-      <c r="A215" s="2" t="s">
+      <c r="B215" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C215" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C215" s="2">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="216" ht="16.5" customHeight="1">
-      <c r="A216" s="2" t="s">
+      <c r="B216" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="C216" s="2">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="217" ht="16.5" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C217" s="2">
-        <v>71.0</v>
-      </c>
-    </row>
-    <row r="218" ht="16.5" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C218" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C218" s="2">
-        <v>63.0</v>
-      </c>
-    </row>
-    <row r="219" ht="16.5" customHeight="1">
-      <c r="A219" s="2" t="s">
+      <c r="B219" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C219" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C219" s="2">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="220" ht="16.5" customHeight="1">
-      <c r="A220" s="2" t="s">
+      <c r="B220" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C220" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C220" s="2">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="221" ht="16.5" customHeight="1">
-      <c r="A221" s="2" t="s">
+      <c r="B221" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="C221" s="2">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="222" ht="16.5" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C222" s="2">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="223" ht="16.5" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C223" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C223" s="2">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="224" ht="16.5" customHeight="1">
-      <c r="A224" s="2" t="s">
+      <c r="B224" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C224" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C224" s="2">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="225" ht="16.5" customHeight="1">
-      <c r="A225" s="2" t="s">
+      <c r="B225" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="C225" s="2">
-        <v>72.0</v>
-      </c>
-    </row>
-    <row r="226" ht="16.5" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C226" s="2">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="227" ht="16.5" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C227" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C227" s="2">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="228" ht="16.5" customHeight="1">
-      <c r="A228" s="2" t="s">
+      <c r="B228" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C228" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C228" s="2">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="229" ht="16.5" customHeight="1">
-      <c r="A229" s="2" t="s">
+      <c r="B229" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C229" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C229" s="2">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="230" ht="16.5" customHeight="1">
-      <c r="A230" s="2" t="s">
+      <c r="B230" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="C230" s="2">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="231" ht="16.5" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C231" s="2">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="232" ht="16.5" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C232" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C232" s="2">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="233" ht="16.5" customHeight="1">
-      <c r="A233" s="2" t="s">
+      <c r="B233" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C233" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C233" s="2">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="234" ht="16.5" customHeight="1">
-      <c r="A234" s="2" t="s">
+      <c r="B234" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="C234" s="2">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="235" ht="16.5" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C235" s="2">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="236" ht="16.5" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
         <v>297</v>
       </c>
@@ -4093,10 +4112,10 @@
         <v>298</v>
       </c>
       <c r="C236" s="2">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="237" ht="16.5" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
         <v>299</v>
       </c>
@@ -4104,120 +4123,120 @@
         <v>298</v>
       </c>
       <c r="C237" s="2">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="238" ht="16.5" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
         <v>300</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C238" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C238" s="2">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="239" ht="16.5" customHeight="1">
-      <c r="A239" s="2" t="s">
+      <c r="B239" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="C239" s="2">
-        <v>72.0</v>
-      </c>
-    </row>
-    <row r="240" ht="16.5" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
         <v>303</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C240" s="2">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="241" ht="16.5" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="2" t="s">
         <v>304</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C241" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C241" s="2">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="242" ht="16.5" customHeight="1">
-      <c r="A242" s="2" t="s">
+      <c r="B242" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C242" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C242" s="2">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="243" ht="16.5" customHeight="1">
-      <c r="A243" s="2" t="s">
+      <c r="B243" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="C243" s="2">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="244" ht="16.5" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C244" s="2">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="245" ht="16.5" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
         <v>309</v>
       </c>
       <c r="B245" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C245" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C245" s="2">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="246" ht="16.5" customHeight="1">
-      <c r="A246" s="2" t="s">
+      <c r="B246" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="C246" s="2">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="247" ht="16.5" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C247" s="2">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="248" ht="16.5" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
         <v>313</v>
       </c>
@@ -4225,10 +4244,10 @@
         <v>314</v>
       </c>
       <c r="C248" s="2">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="249" ht="16.5" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="2" t="s">
         <v>315</v>
       </c>
@@ -4236,834 +4255,811 @@
         <v>314</v>
       </c>
       <c r="C249" s="2">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="250" ht="16.5" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C250" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C250" s="2">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="251" ht="16.5" customHeight="1">
-      <c r="A251" s="2" t="s">
+      <c r="B251" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="C251" s="2">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="252" ht="16.5" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C252" s="2">
-        <v>87.0</v>
-      </c>
-    </row>
-    <row r="253" ht="16.5" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C253" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C253" s="2">
-        <v>72.0</v>
-      </c>
-    </row>
-    <row r="254" ht="16.5" customHeight="1">
-      <c r="A254" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="B254" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C254" s="2">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="255" ht="16.5" customHeight="1">
-      <c r="A255" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C255" s="2">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="256" ht="16.5" customHeight="1">
-      <c r="A256" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C256" s="2">
-        <v>63.0</v>
-      </c>
-    </row>
-    <row r="257" ht="16.5" customHeight="1"/>
-    <row r="258" ht="16.5" customHeight="1"/>
-    <row r="259" ht="16.5" customHeight="1"/>
-    <row r="260" ht="16.5" customHeight="1"/>
-    <row r="261" ht="16.5" customHeight="1"/>
-    <row r="262" ht="16.5" customHeight="1"/>
-    <row r="263" ht="16.5" customHeight="1"/>
-    <row r="264" ht="16.5" customHeight="1"/>
-    <row r="265" ht="16.5" customHeight="1"/>
-    <row r="266" ht="16.5" customHeight="1"/>
-    <row r="267" ht="16.5" customHeight="1"/>
-    <row r="268" ht="16.5" customHeight="1"/>
-    <row r="269" ht="16.5" customHeight="1"/>
-    <row r="270" ht="16.5" customHeight="1"/>
-    <row r="271" ht="16.5" customHeight="1"/>
-    <row r="272" ht="16.5" customHeight="1"/>
-    <row r="273" ht="16.5" customHeight="1"/>
-    <row r="274" ht="16.5" customHeight="1"/>
-    <row r="275" ht="16.5" customHeight="1"/>
-    <row r="276" ht="16.5" customHeight="1"/>
-    <row r="277" ht="16.5" customHeight="1"/>
-    <row r="278" ht="16.5" customHeight="1"/>
-    <row r="279" ht="16.5" customHeight="1"/>
-    <row r="280" ht="16.5" customHeight="1"/>
-    <row r="281" ht="16.5" customHeight="1"/>
-    <row r="282" ht="16.5" customHeight="1"/>
-    <row r="283" ht="16.5" customHeight="1"/>
-    <row r="284" ht="16.5" customHeight="1"/>
-    <row r="285" ht="16.5" customHeight="1"/>
-    <row r="286" ht="16.5" customHeight="1"/>
-    <row r="287" ht="16.5" customHeight="1"/>
-    <row r="288" ht="16.5" customHeight="1"/>
-    <row r="289" ht="16.5" customHeight="1"/>
-    <row r="290" ht="16.5" customHeight="1"/>
-    <row r="291" ht="16.5" customHeight="1"/>
-    <row r="292" ht="16.5" customHeight="1"/>
-    <row r="293" ht="16.5" customHeight="1"/>
-    <row r="294" ht="16.5" customHeight="1"/>
-    <row r="295" ht="16.5" customHeight="1"/>
-    <row r="296" ht="16.5" customHeight="1"/>
-    <row r="297" ht="16.5" customHeight="1"/>
-    <row r="298" ht="16.5" customHeight="1"/>
-    <row r="299" ht="16.5" customHeight="1"/>
-    <row r="300" ht="16.5" customHeight="1"/>
-    <row r="301" ht="16.5" customHeight="1"/>
-    <row r="302" ht="16.5" customHeight="1"/>
-    <row r="303" ht="16.5" customHeight="1"/>
-    <row r="304" ht="16.5" customHeight="1"/>
-    <row r="305" ht="16.5" customHeight="1"/>
-    <row r="306" ht="16.5" customHeight="1"/>
-    <row r="307" ht="16.5" customHeight="1"/>
-    <row r="308" ht="16.5" customHeight="1"/>
-    <row r="309" ht="16.5" customHeight="1"/>
-    <row r="310" ht="16.5" customHeight="1"/>
-    <row r="311" ht="16.5" customHeight="1"/>
-    <row r="312" ht="16.5" customHeight="1"/>
-    <row r="313" ht="16.5" customHeight="1"/>
-    <row r="314" ht="16.5" customHeight="1"/>
-    <row r="315" ht="16.5" customHeight="1"/>
-    <row r="316" ht="16.5" customHeight="1"/>
-    <row r="317" ht="16.5" customHeight="1"/>
-    <row r="318" ht="16.5" customHeight="1"/>
-    <row r="319" ht="16.5" customHeight="1"/>
-    <row r="320" ht="16.5" customHeight="1"/>
-    <row r="321" ht="16.5" customHeight="1"/>
-    <row r="322" ht="16.5" customHeight="1"/>
-    <row r="323" ht="16.5" customHeight="1"/>
-    <row r="324" ht="16.5" customHeight="1"/>
-    <row r="325" ht="16.5" customHeight="1"/>
-    <row r="326" ht="16.5" customHeight="1"/>
-    <row r="327" ht="16.5" customHeight="1"/>
-    <row r="328" ht="16.5" customHeight="1"/>
-    <row r="329" ht="16.5" customHeight="1"/>
-    <row r="330" ht="16.5" customHeight="1"/>
-    <row r="331" ht="16.5" customHeight="1"/>
-    <row r="332" ht="16.5" customHeight="1"/>
-    <row r="333" ht="16.5" customHeight="1"/>
-    <row r="334" ht="16.5" customHeight="1"/>
-    <row r="335" ht="16.5" customHeight="1"/>
-    <row r="336" ht="16.5" customHeight="1"/>
-    <row r="337" ht="16.5" customHeight="1"/>
-    <row r="338" ht="16.5" customHeight="1"/>
-    <row r="339" ht="16.5" customHeight="1"/>
-    <row r="340" ht="16.5" customHeight="1"/>
-    <row r="341" ht="16.5" customHeight="1"/>
-    <row r="342" ht="16.5" customHeight="1"/>
-    <row r="343" ht="16.5" customHeight="1"/>
-    <row r="344" ht="16.5" customHeight="1"/>
-    <row r="345" ht="16.5" customHeight="1"/>
-    <row r="346" ht="16.5" customHeight="1"/>
-    <row r="347" ht="16.5" customHeight="1"/>
-    <row r="348" ht="16.5" customHeight="1"/>
-    <row r="349" ht="16.5" customHeight="1"/>
-    <row r="350" ht="16.5" customHeight="1"/>
-    <row r="351" ht="16.5" customHeight="1"/>
-    <row r="352" ht="16.5" customHeight="1"/>
-    <row r="353" ht="16.5" customHeight="1"/>
-    <row r="354" ht="16.5" customHeight="1"/>
-    <row r="355" ht="16.5" customHeight="1"/>
-    <row r="356" ht="16.5" customHeight="1"/>
-    <row r="357" ht="16.5" customHeight="1"/>
-    <row r="358" ht="16.5" customHeight="1"/>
-    <row r="359" ht="16.5" customHeight="1"/>
-    <row r="360" ht="16.5" customHeight="1"/>
-    <row r="361" ht="16.5" customHeight="1"/>
-    <row r="362" ht="16.5" customHeight="1"/>
-    <row r="363" ht="16.5" customHeight="1"/>
-    <row r="364" ht="16.5" customHeight="1"/>
-    <row r="365" ht="16.5" customHeight="1"/>
-    <row r="366" ht="16.5" customHeight="1"/>
-    <row r="367" ht="16.5" customHeight="1"/>
-    <row r="368" ht="16.5" customHeight="1"/>
-    <row r="369" ht="16.5" customHeight="1"/>
-    <row r="370" ht="16.5" customHeight="1"/>
-    <row r="371" ht="16.5" customHeight="1"/>
-    <row r="372" ht="16.5" customHeight="1"/>
-    <row r="373" ht="16.5" customHeight="1"/>
-    <row r="374" ht="16.5" customHeight="1"/>
-    <row r="375" ht="16.5" customHeight="1"/>
-    <row r="376" ht="16.5" customHeight="1"/>
-    <row r="377" ht="16.5" customHeight="1"/>
-    <row r="378" ht="16.5" customHeight="1"/>
-    <row r="379" ht="16.5" customHeight="1"/>
-    <row r="380" ht="16.5" customHeight="1"/>
-    <row r="381" ht="16.5" customHeight="1"/>
-    <row r="382" ht="16.5" customHeight="1"/>
-    <row r="383" ht="16.5" customHeight="1"/>
-    <row r="384" ht="16.5" customHeight="1"/>
-    <row r="385" ht="16.5" customHeight="1"/>
-    <row r="386" ht="16.5" customHeight="1"/>
-    <row r="387" ht="16.5" customHeight="1"/>
-    <row r="388" ht="16.5" customHeight="1"/>
-    <row r="389" ht="16.5" customHeight="1"/>
-    <row r="390" ht="16.5" customHeight="1"/>
-    <row r="391" ht="16.5" customHeight="1"/>
-    <row r="392" ht="16.5" customHeight="1"/>
-    <row r="393" ht="16.5" customHeight="1"/>
-    <row r="394" ht="16.5" customHeight="1"/>
-    <row r="395" ht="16.5" customHeight="1"/>
-    <row r="396" ht="16.5" customHeight="1"/>
-    <row r="397" ht="16.5" customHeight="1"/>
-    <row r="398" ht="16.5" customHeight="1"/>
-    <row r="399" ht="16.5" customHeight="1"/>
-    <row r="400" ht="16.5" customHeight="1"/>
-    <row r="401" ht="16.5" customHeight="1"/>
-    <row r="402" ht="16.5" customHeight="1"/>
-    <row r="403" ht="16.5" customHeight="1"/>
-    <row r="404" ht="16.5" customHeight="1"/>
-    <row r="405" ht="16.5" customHeight="1"/>
-    <row r="406" ht="16.5" customHeight="1"/>
-    <row r="407" ht="16.5" customHeight="1"/>
-    <row r="408" ht="16.5" customHeight="1"/>
-    <row r="409" ht="16.5" customHeight="1"/>
-    <row r="410" ht="16.5" customHeight="1"/>
-    <row r="411" ht="16.5" customHeight="1"/>
-    <row r="412" ht="16.5" customHeight="1"/>
-    <row r="413" ht="16.5" customHeight="1"/>
-    <row r="414" ht="16.5" customHeight="1"/>
-    <row r="415" ht="16.5" customHeight="1"/>
-    <row r="416" ht="16.5" customHeight="1"/>
-    <row r="417" ht="16.5" customHeight="1"/>
-    <row r="418" ht="16.5" customHeight="1"/>
-    <row r="419" ht="16.5" customHeight="1"/>
-    <row r="420" ht="16.5" customHeight="1"/>
-    <row r="421" ht="16.5" customHeight="1"/>
-    <row r="422" ht="16.5" customHeight="1"/>
-    <row r="423" ht="16.5" customHeight="1"/>
-    <row r="424" ht="16.5" customHeight="1"/>
-    <row r="425" ht="16.5" customHeight="1"/>
-    <row r="426" ht="16.5" customHeight="1"/>
-    <row r="427" ht="16.5" customHeight="1"/>
-    <row r="428" ht="16.5" customHeight="1"/>
-    <row r="429" ht="16.5" customHeight="1"/>
-    <row r="430" ht="16.5" customHeight="1"/>
-    <row r="431" ht="16.5" customHeight="1"/>
-    <row r="432" ht="16.5" customHeight="1"/>
-    <row r="433" ht="16.5" customHeight="1"/>
-    <row r="434" ht="16.5" customHeight="1"/>
-    <row r="435" ht="16.5" customHeight="1"/>
-    <row r="436" ht="16.5" customHeight="1"/>
-    <row r="437" ht="16.5" customHeight="1"/>
-    <row r="438" ht="16.5" customHeight="1"/>
-    <row r="439" ht="16.5" customHeight="1"/>
-    <row r="440" ht="16.5" customHeight="1"/>
-    <row r="441" ht="16.5" customHeight="1"/>
-    <row r="442" ht="16.5" customHeight="1"/>
-    <row r="443" ht="16.5" customHeight="1"/>
-    <row r="444" ht="16.5" customHeight="1"/>
-    <row r="445" ht="16.5" customHeight="1"/>
-    <row r="446" ht="16.5" customHeight="1"/>
-    <row r="447" ht="16.5" customHeight="1"/>
-    <row r="448" ht="16.5" customHeight="1"/>
-    <row r="449" ht="16.5" customHeight="1"/>
-    <row r="450" ht="16.5" customHeight="1"/>
-    <row r="451" ht="16.5" customHeight="1"/>
-    <row r="452" ht="16.5" customHeight="1"/>
-    <row r="453" ht="16.5" customHeight="1"/>
-    <row r="454" ht="16.5" customHeight="1"/>
-    <row r="455" ht="16.5" customHeight="1"/>
-    <row r="456" ht="16.5" customHeight="1"/>
-    <row r="457" ht="16.5" customHeight="1"/>
-    <row r="458" ht="16.5" customHeight="1"/>
-    <row r="459" ht="16.5" customHeight="1"/>
-    <row r="460" ht="16.5" customHeight="1"/>
-    <row r="461" ht="16.5" customHeight="1"/>
-    <row r="462" ht="16.5" customHeight="1"/>
-    <row r="463" ht="16.5" customHeight="1"/>
-    <row r="464" ht="16.5" customHeight="1"/>
-    <row r="465" ht="16.5" customHeight="1"/>
-    <row r="466" ht="16.5" customHeight="1"/>
-    <row r="467" ht="16.5" customHeight="1"/>
-    <row r="468" ht="16.5" customHeight="1"/>
-    <row r="469" ht="16.5" customHeight="1"/>
-    <row r="470" ht="16.5" customHeight="1"/>
-    <row r="471" ht="16.5" customHeight="1"/>
-    <row r="472" ht="16.5" customHeight="1"/>
-    <row r="473" ht="16.5" customHeight="1"/>
-    <row r="474" ht="16.5" customHeight="1"/>
-    <row r="475" ht="16.5" customHeight="1"/>
-    <row r="476" ht="16.5" customHeight="1"/>
-    <row r="477" ht="16.5" customHeight="1"/>
-    <row r="478" ht="16.5" customHeight="1"/>
-    <row r="479" ht="16.5" customHeight="1"/>
-    <row r="480" ht="16.5" customHeight="1"/>
-    <row r="481" ht="16.5" customHeight="1"/>
-    <row r="482" ht="16.5" customHeight="1"/>
-    <row r="483" ht="16.5" customHeight="1"/>
-    <row r="484" ht="16.5" customHeight="1"/>
-    <row r="485" ht="16.5" customHeight="1"/>
-    <row r="486" ht="16.5" customHeight="1"/>
-    <row r="487" ht="16.5" customHeight="1"/>
-    <row r="488" ht="16.5" customHeight="1"/>
-    <row r="489" ht="16.5" customHeight="1"/>
-    <row r="490" ht="16.5" customHeight="1"/>
-    <row r="491" ht="16.5" customHeight="1"/>
-    <row r="492" ht="16.5" customHeight="1"/>
-    <row r="493" ht="16.5" customHeight="1"/>
-    <row r="494" ht="16.5" customHeight="1"/>
-    <row r="495" ht="16.5" customHeight="1"/>
-    <row r="496" ht="16.5" customHeight="1"/>
-    <row r="497" ht="16.5" customHeight="1"/>
-    <row r="498" ht="16.5" customHeight="1"/>
-    <row r="499" ht="16.5" customHeight="1"/>
-    <row r="500" ht="16.5" customHeight="1"/>
-    <row r="501" ht="16.5" customHeight="1"/>
-    <row r="502" ht="16.5" customHeight="1"/>
-    <row r="503" ht="16.5" customHeight="1"/>
-    <row r="504" ht="16.5" customHeight="1"/>
-    <row r="505" ht="16.5" customHeight="1"/>
-    <row r="506" ht="16.5" customHeight="1"/>
-    <row r="507" ht="16.5" customHeight="1"/>
-    <row r="508" ht="16.5" customHeight="1"/>
-    <row r="509" ht="16.5" customHeight="1"/>
-    <row r="510" ht="16.5" customHeight="1"/>
-    <row r="511" ht="16.5" customHeight="1"/>
-    <row r="512" ht="16.5" customHeight="1"/>
-    <row r="513" ht="16.5" customHeight="1"/>
-    <row r="514" ht="16.5" customHeight="1"/>
-    <row r="515" ht="16.5" customHeight="1"/>
-    <row r="516" ht="16.5" customHeight="1"/>
-    <row r="517" ht="16.5" customHeight="1"/>
-    <row r="518" ht="16.5" customHeight="1"/>
-    <row r="519" ht="16.5" customHeight="1"/>
-    <row r="520" ht="16.5" customHeight="1"/>
-    <row r="521" ht="16.5" customHeight="1"/>
-    <row r="522" ht="16.5" customHeight="1"/>
-    <row r="523" ht="16.5" customHeight="1"/>
-    <row r="524" ht="16.5" customHeight="1"/>
-    <row r="525" ht="16.5" customHeight="1"/>
-    <row r="526" ht="16.5" customHeight="1"/>
-    <row r="527" ht="16.5" customHeight="1"/>
-    <row r="528" ht="16.5" customHeight="1"/>
-    <row r="529" ht="16.5" customHeight="1"/>
-    <row r="530" ht="16.5" customHeight="1"/>
-    <row r="531" ht="16.5" customHeight="1"/>
-    <row r="532" ht="16.5" customHeight="1"/>
-    <row r="533" ht="16.5" customHeight="1"/>
-    <row r="534" ht="16.5" customHeight="1"/>
-    <row r="535" ht="16.5" customHeight="1"/>
-    <row r="536" ht="16.5" customHeight="1"/>
-    <row r="537" ht="16.5" customHeight="1"/>
-    <row r="538" ht="16.5" customHeight="1"/>
-    <row r="539" ht="16.5" customHeight="1"/>
-    <row r="540" ht="16.5" customHeight="1"/>
-    <row r="541" ht="16.5" customHeight="1"/>
-    <row r="542" ht="16.5" customHeight="1"/>
-    <row r="543" ht="16.5" customHeight="1"/>
-    <row r="544" ht="16.5" customHeight="1"/>
-    <row r="545" ht="16.5" customHeight="1"/>
-    <row r="546" ht="16.5" customHeight="1"/>
-    <row r="547" ht="16.5" customHeight="1"/>
-    <row r="548" ht="16.5" customHeight="1"/>
-    <row r="549" ht="16.5" customHeight="1"/>
-    <row r="550" ht="16.5" customHeight="1"/>
-    <row r="551" ht="16.5" customHeight="1"/>
-    <row r="552" ht="16.5" customHeight="1"/>
-    <row r="553" ht="16.5" customHeight="1"/>
-    <row r="554" ht="16.5" customHeight="1"/>
-    <row r="555" ht="16.5" customHeight="1"/>
-    <row r="556" ht="16.5" customHeight="1"/>
-    <row r="557" ht="16.5" customHeight="1"/>
-    <row r="558" ht="16.5" customHeight="1"/>
-    <row r="559" ht="16.5" customHeight="1"/>
-    <row r="560" ht="16.5" customHeight="1"/>
-    <row r="561" ht="16.5" customHeight="1"/>
-    <row r="562" ht="16.5" customHeight="1"/>
-    <row r="563" ht="16.5" customHeight="1"/>
-    <row r="564" ht="16.5" customHeight="1"/>
-    <row r="565" ht="16.5" customHeight="1"/>
-    <row r="566" ht="16.5" customHeight="1"/>
-    <row r="567" ht="16.5" customHeight="1"/>
-    <row r="568" ht="16.5" customHeight="1"/>
-    <row r="569" ht="16.5" customHeight="1"/>
-    <row r="570" ht="16.5" customHeight="1"/>
-    <row r="571" ht="16.5" customHeight="1"/>
-    <row r="572" ht="16.5" customHeight="1"/>
-    <row r="573" ht="16.5" customHeight="1"/>
-    <row r="574" ht="16.5" customHeight="1"/>
-    <row r="575" ht="16.5" customHeight="1"/>
-    <row r="576" ht="16.5" customHeight="1"/>
-    <row r="577" ht="16.5" customHeight="1"/>
-    <row r="578" ht="16.5" customHeight="1"/>
-    <row r="579" ht="16.5" customHeight="1"/>
-    <row r="580" ht="16.5" customHeight="1"/>
-    <row r="581" ht="16.5" customHeight="1"/>
-    <row r="582" ht="16.5" customHeight="1"/>
-    <row r="583" ht="16.5" customHeight="1"/>
-    <row r="584" ht="16.5" customHeight="1"/>
-    <row r="585" ht="16.5" customHeight="1"/>
-    <row r="586" ht="16.5" customHeight="1"/>
-    <row r="587" ht="16.5" customHeight="1"/>
-    <row r="588" ht="16.5" customHeight="1"/>
-    <row r="589" ht="16.5" customHeight="1"/>
-    <row r="590" ht="16.5" customHeight="1"/>
-    <row r="591" ht="16.5" customHeight="1"/>
-    <row r="592" ht="16.5" customHeight="1"/>
-    <row r="593" ht="16.5" customHeight="1"/>
-    <row r="594" ht="16.5" customHeight="1"/>
-    <row r="595" ht="16.5" customHeight="1"/>
-    <row r="596" ht="16.5" customHeight="1"/>
-    <row r="597" ht="16.5" customHeight="1"/>
-    <row r="598" ht="16.5" customHeight="1"/>
-    <row r="599" ht="16.5" customHeight="1"/>
-    <row r="600" ht="16.5" customHeight="1"/>
-    <row r="601" ht="16.5" customHeight="1"/>
-    <row r="602" ht="16.5" customHeight="1"/>
-    <row r="603" ht="16.5" customHeight="1"/>
-    <row r="604" ht="16.5" customHeight="1"/>
-    <row r="605" ht="16.5" customHeight="1"/>
-    <row r="606" ht="16.5" customHeight="1"/>
-    <row r="607" ht="16.5" customHeight="1"/>
-    <row r="608" ht="16.5" customHeight="1"/>
-    <row r="609" ht="16.5" customHeight="1"/>
-    <row r="610" ht="16.5" customHeight="1"/>
-    <row r="611" ht="16.5" customHeight="1"/>
-    <row r="612" ht="16.5" customHeight="1"/>
-    <row r="613" ht="16.5" customHeight="1"/>
-    <row r="614" ht="16.5" customHeight="1"/>
-    <row r="615" ht="16.5" customHeight="1"/>
-    <row r="616" ht="16.5" customHeight="1"/>
-    <row r="617" ht="16.5" customHeight="1"/>
-    <row r="618" ht="16.5" customHeight="1"/>
-    <row r="619" ht="16.5" customHeight="1"/>
-    <row r="620" ht="16.5" customHeight="1"/>
-    <row r="621" ht="16.5" customHeight="1"/>
-    <row r="622" ht="16.5" customHeight="1"/>
-    <row r="623" ht="16.5" customHeight="1"/>
-    <row r="624" ht="16.5" customHeight="1"/>
-    <row r="625" ht="16.5" customHeight="1"/>
-    <row r="626" ht="16.5" customHeight="1"/>
-    <row r="627" ht="16.5" customHeight="1"/>
-    <row r="628" ht="16.5" customHeight="1"/>
-    <row r="629" ht="16.5" customHeight="1"/>
-    <row r="630" ht="16.5" customHeight="1"/>
-    <row r="631" ht="16.5" customHeight="1"/>
-    <row r="632" ht="16.5" customHeight="1"/>
-    <row r="633" ht="16.5" customHeight="1"/>
-    <row r="634" ht="16.5" customHeight="1"/>
-    <row r="635" ht="16.5" customHeight="1"/>
-    <row r="636" ht="16.5" customHeight="1"/>
-    <row r="637" ht="16.5" customHeight="1"/>
-    <row r="638" ht="16.5" customHeight="1"/>
-    <row r="639" ht="16.5" customHeight="1"/>
-    <row r="640" ht="16.5" customHeight="1"/>
-    <row r="641" ht="16.5" customHeight="1"/>
-    <row r="642" ht="16.5" customHeight="1"/>
-    <row r="643" ht="16.5" customHeight="1"/>
-    <row r="644" ht="16.5" customHeight="1"/>
-    <row r="645" ht="16.5" customHeight="1"/>
-    <row r="646" ht="16.5" customHeight="1"/>
-    <row r="647" ht="16.5" customHeight="1"/>
-    <row r="648" ht="16.5" customHeight="1"/>
-    <row r="649" ht="16.5" customHeight="1"/>
-    <row r="650" ht="16.5" customHeight="1"/>
-    <row r="651" ht="16.5" customHeight="1"/>
-    <row r="652" ht="16.5" customHeight="1"/>
-    <row r="653" ht="16.5" customHeight="1"/>
-    <row r="654" ht="16.5" customHeight="1"/>
-    <row r="655" ht="16.5" customHeight="1"/>
-    <row r="656" ht="16.5" customHeight="1"/>
-    <row r="657" ht="16.5" customHeight="1"/>
-    <row r="658" ht="16.5" customHeight="1"/>
-    <row r="659" ht="16.5" customHeight="1"/>
-    <row r="660" ht="16.5" customHeight="1"/>
-    <row r="661" ht="16.5" customHeight="1"/>
-    <row r="662" ht="16.5" customHeight="1"/>
-    <row r="663" ht="16.5" customHeight="1"/>
-    <row r="664" ht="16.5" customHeight="1"/>
-    <row r="665" ht="16.5" customHeight="1"/>
-    <row r="666" ht="16.5" customHeight="1"/>
-    <row r="667" ht="16.5" customHeight="1"/>
-    <row r="668" ht="16.5" customHeight="1"/>
-    <row r="669" ht="16.5" customHeight="1"/>
-    <row r="670" ht="16.5" customHeight="1"/>
-    <row r="671" ht="16.5" customHeight="1"/>
-    <row r="672" ht="16.5" customHeight="1"/>
-    <row r="673" ht="16.5" customHeight="1"/>
-    <row r="674" ht="16.5" customHeight="1"/>
-    <row r="675" ht="16.5" customHeight="1"/>
-    <row r="676" ht="16.5" customHeight="1"/>
-    <row r="677" ht="16.5" customHeight="1"/>
-    <row r="678" ht="16.5" customHeight="1"/>
-    <row r="679" ht="16.5" customHeight="1"/>
-    <row r="680" ht="16.5" customHeight="1"/>
-    <row r="681" ht="16.5" customHeight="1"/>
-    <row r="682" ht="16.5" customHeight="1"/>
-    <row r="683" ht="16.5" customHeight="1"/>
-    <row r="684" ht="16.5" customHeight="1"/>
-    <row r="685" ht="16.5" customHeight="1"/>
-    <row r="686" ht="16.5" customHeight="1"/>
-    <row r="687" ht="16.5" customHeight="1"/>
-    <row r="688" ht="16.5" customHeight="1"/>
-    <row r="689" ht="16.5" customHeight="1"/>
-    <row r="690" ht="16.5" customHeight="1"/>
-    <row r="691" ht="16.5" customHeight="1"/>
-    <row r="692" ht="16.5" customHeight="1"/>
-    <row r="693" ht="16.5" customHeight="1"/>
-    <row r="694" ht="16.5" customHeight="1"/>
-    <row r="695" ht="16.5" customHeight="1"/>
-    <row r="696" ht="16.5" customHeight="1"/>
-    <row r="697" ht="16.5" customHeight="1"/>
-    <row r="698" ht="16.5" customHeight="1"/>
-    <row r="699" ht="16.5" customHeight="1"/>
-    <row r="700" ht="16.5" customHeight="1"/>
-    <row r="701" ht="16.5" customHeight="1"/>
-    <row r="702" ht="16.5" customHeight="1"/>
-    <row r="703" ht="16.5" customHeight="1"/>
-    <row r="704" ht="16.5" customHeight="1"/>
-    <row r="705" ht="16.5" customHeight="1"/>
-    <row r="706" ht="16.5" customHeight="1"/>
-    <row r="707" ht="16.5" customHeight="1"/>
-    <row r="708" ht="16.5" customHeight="1"/>
-    <row r="709" ht="16.5" customHeight="1"/>
-    <row r="710" ht="16.5" customHeight="1"/>
-    <row r="711" ht="16.5" customHeight="1"/>
-    <row r="712" ht="16.5" customHeight="1"/>
-    <row r="713" ht="16.5" customHeight="1"/>
-    <row r="714" ht="16.5" customHeight="1"/>
-    <row r="715" ht="16.5" customHeight="1"/>
-    <row r="716" ht="16.5" customHeight="1"/>
-    <row r="717" ht="16.5" customHeight="1"/>
-    <row r="718" ht="16.5" customHeight="1"/>
-    <row r="719" ht="16.5" customHeight="1"/>
-    <row r="720" ht="16.5" customHeight="1"/>
-    <row r="721" ht="16.5" customHeight="1"/>
-    <row r="722" ht="16.5" customHeight="1"/>
-    <row r="723" ht="16.5" customHeight="1"/>
-    <row r="724" ht="16.5" customHeight="1"/>
-    <row r="725" ht="16.5" customHeight="1"/>
-    <row r="726" ht="16.5" customHeight="1"/>
-    <row r="727" ht="16.5" customHeight="1"/>
-    <row r="728" ht="16.5" customHeight="1"/>
-    <row r="729" ht="16.5" customHeight="1"/>
-    <row r="730" ht="16.5" customHeight="1"/>
-    <row r="731" ht="16.5" customHeight="1"/>
-    <row r="732" ht="16.5" customHeight="1"/>
-    <row r="733" ht="16.5" customHeight="1"/>
-    <row r="734" ht="16.5" customHeight="1"/>
-    <row r="735" ht="16.5" customHeight="1"/>
-    <row r="736" ht="16.5" customHeight="1"/>
-    <row r="737" ht="16.5" customHeight="1"/>
-    <row r="738" ht="16.5" customHeight="1"/>
-    <row r="739" ht="16.5" customHeight="1"/>
-    <row r="740" ht="16.5" customHeight="1"/>
-    <row r="741" ht="16.5" customHeight="1"/>
-    <row r="742" ht="16.5" customHeight="1"/>
-    <row r="743" ht="16.5" customHeight="1"/>
-    <row r="744" ht="16.5" customHeight="1"/>
-    <row r="745" ht="16.5" customHeight="1"/>
-    <row r="746" ht="16.5" customHeight="1"/>
-    <row r="747" ht="16.5" customHeight="1"/>
-    <row r="748" ht="16.5" customHeight="1"/>
-    <row r="749" ht="16.5" customHeight="1"/>
-    <row r="750" ht="16.5" customHeight="1"/>
-    <row r="751" ht="16.5" customHeight="1"/>
-    <row r="752" ht="16.5" customHeight="1"/>
-    <row r="753" ht="16.5" customHeight="1"/>
-    <row r="754" ht="16.5" customHeight="1"/>
-    <row r="755" ht="16.5" customHeight="1"/>
-    <row r="756" ht="16.5" customHeight="1"/>
-    <row r="757" ht="16.5" customHeight="1"/>
-    <row r="758" ht="16.5" customHeight="1"/>
-    <row r="759" ht="16.5" customHeight="1"/>
-    <row r="760" ht="16.5" customHeight="1"/>
-    <row r="761" ht="16.5" customHeight="1"/>
-    <row r="762" ht="16.5" customHeight="1"/>
-    <row r="763" ht="16.5" customHeight="1"/>
-    <row r="764" ht="16.5" customHeight="1"/>
-    <row r="765" ht="16.5" customHeight="1"/>
-    <row r="766" ht="16.5" customHeight="1"/>
-    <row r="767" ht="16.5" customHeight="1"/>
-    <row r="768" ht="16.5" customHeight="1"/>
-    <row r="769" ht="16.5" customHeight="1"/>
-    <row r="770" ht="16.5" customHeight="1"/>
-    <row r="771" ht="16.5" customHeight="1"/>
-    <row r="772" ht="16.5" customHeight="1"/>
-    <row r="773" ht="16.5" customHeight="1"/>
-    <row r="774" ht="16.5" customHeight="1"/>
-    <row r="775" ht="16.5" customHeight="1"/>
-    <row r="776" ht="16.5" customHeight="1"/>
-    <row r="777" ht="16.5" customHeight="1"/>
-    <row r="778" ht="16.5" customHeight="1"/>
-    <row r="779" ht="16.5" customHeight="1"/>
-    <row r="780" ht="16.5" customHeight="1"/>
-    <row r="781" ht="16.5" customHeight="1"/>
-    <row r="782" ht="16.5" customHeight="1"/>
-    <row r="783" ht="16.5" customHeight="1"/>
-    <row r="784" ht="16.5" customHeight="1"/>
-    <row r="785" ht="16.5" customHeight="1"/>
-    <row r="786" ht="16.5" customHeight="1"/>
-    <row r="787" ht="16.5" customHeight="1"/>
-    <row r="788" ht="16.5" customHeight="1"/>
-    <row r="789" ht="16.5" customHeight="1"/>
-    <row r="790" ht="16.5" customHeight="1"/>
-    <row r="791" ht="16.5" customHeight="1"/>
-    <row r="792" ht="16.5" customHeight="1"/>
-    <row r="793" ht="16.5" customHeight="1"/>
-    <row r="794" ht="16.5" customHeight="1"/>
-    <row r="795" ht="16.5" customHeight="1"/>
-    <row r="796" ht="16.5" customHeight="1"/>
-    <row r="797" ht="16.5" customHeight="1"/>
-    <row r="798" ht="16.5" customHeight="1"/>
-    <row r="799" ht="16.5" customHeight="1"/>
-    <row r="800" ht="16.5" customHeight="1"/>
-    <row r="801" ht="16.5" customHeight="1"/>
-    <row r="802" ht="16.5" customHeight="1"/>
-    <row r="803" ht="16.5" customHeight="1"/>
-    <row r="804" ht="16.5" customHeight="1"/>
-    <row r="805" ht="16.5" customHeight="1"/>
-    <row r="806" ht="16.5" customHeight="1"/>
-    <row r="807" ht="16.5" customHeight="1"/>
-    <row r="808" ht="16.5" customHeight="1"/>
-    <row r="809" ht="16.5" customHeight="1"/>
-    <row r="810" ht="16.5" customHeight="1"/>
-    <row r="811" ht="16.5" customHeight="1"/>
-    <row r="812" ht="16.5" customHeight="1"/>
-    <row r="813" ht="16.5" customHeight="1"/>
-    <row r="814" ht="16.5" customHeight="1"/>
-    <row r="815" ht="16.5" customHeight="1"/>
-    <row r="816" ht="16.5" customHeight="1"/>
-    <row r="817" ht="16.5" customHeight="1"/>
-    <row r="818" ht="16.5" customHeight="1"/>
-    <row r="819" ht="16.5" customHeight="1"/>
-    <row r="820" ht="16.5" customHeight="1"/>
-    <row r="821" ht="16.5" customHeight="1"/>
-    <row r="822" ht="16.5" customHeight="1"/>
-    <row r="823" ht="16.5" customHeight="1"/>
-    <row r="824" ht="16.5" customHeight="1"/>
-    <row r="825" ht="16.5" customHeight="1"/>
-    <row r="826" ht="16.5" customHeight="1"/>
-    <row r="827" ht="16.5" customHeight="1"/>
-    <row r="828" ht="16.5" customHeight="1"/>
-    <row r="829" ht="16.5" customHeight="1"/>
-    <row r="830" ht="16.5" customHeight="1"/>
-    <row r="831" ht="16.5" customHeight="1"/>
-    <row r="832" ht="16.5" customHeight="1"/>
-    <row r="833" ht="16.5" customHeight="1"/>
-    <row r="834" ht="16.5" customHeight="1"/>
-    <row r="835" ht="16.5" customHeight="1"/>
-    <row r="836" ht="16.5" customHeight="1"/>
-    <row r="837" ht="16.5" customHeight="1"/>
-    <row r="838" ht="16.5" customHeight="1"/>
-    <row r="839" ht="16.5" customHeight="1"/>
-    <row r="840" ht="16.5" customHeight="1"/>
-    <row r="841" ht="16.5" customHeight="1"/>
-    <row r="842" ht="16.5" customHeight="1"/>
-    <row r="843" ht="16.5" customHeight="1"/>
-    <row r="844" ht="16.5" customHeight="1"/>
-    <row r="845" ht="16.5" customHeight="1"/>
-    <row r="846" ht="16.5" customHeight="1"/>
-    <row r="847" ht="16.5" customHeight="1"/>
-    <row r="848" ht="16.5" customHeight="1"/>
-    <row r="849" ht="16.5" customHeight="1"/>
-    <row r="850" ht="16.5" customHeight="1"/>
-    <row r="851" ht="16.5" customHeight="1"/>
-    <row r="852" ht="16.5" customHeight="1"/>
-    <row r="853" ht="16.5" customHeight="1"/>
-    <row r="854" ht="16.5" customHeight="1"/>
-    <row r="855" ht="16.5" customHeight="1"/>
-    <row r="856" ht="16.5" customHeight="1"/>
-    <row r="857" ht="16.5" customHeight="1"/>
-    <row r="858" ht="16.5" customHeight="1"/>
-    <row r="859" ht="16.5" customHeight="1"/>
-    <row r="860" ht="16.5" customHeight="1"/>
-    <row r="861" ht="16.5" customHeight="1"/>
-    <row r="862" ht="16.5" customHeight="1"/>
-    <row r="863" ht="16.5" customHeight="1"/>
-    <row r="864" ht="16.5" customHeight="1"/>
-    <row r="865" ht="16.5" customHeight="1"/>
-    <row r="866" ht="16.5" customHeight="1"/>
-    <row r="867" ht="16.5" customHeight="1"/>
-    <row r="868" ht="16.5" customHeight="1"/>
-    <row r="869" ht="16.5" customHeight="1"/>
-    <row r="870" ht="16.5" customHeight="1"/>
-    <row r="871" ht="16.5" customHeight="1"/>
-    <row r="872" ht="16.5" customHeight="1"/>
-    <row r="873" ht="16.5" customHeight="1"/>
-    <row r="874" ht="16.5" customHeight="1"/>
-    <row r="875" ht="16.5" customHeight="1"/>
-    <row r="876" ht="16.5" customHeight="1"/>
-    <row r="877" ht="16.5" customHeight="1"/>
-    <row r="878" ht="16.5" customHeight="1"/>
-    <row r="879" ht="16.5" customHeight="1"/>
-    <row r="880" ht="16.5" customHeight="1"/>
-    <row r="881" ht="16.5" customHeight="1"/>
-    <row r="882" ht="16.5" customHeight="1"/>
-    <row r="883" ht="16.5" customHeight="1"/>
-    <row r="884" ht="16.5" customHeight="1"/>
-    <row r="885" ht="16.5" customHeight="1"/>
-    <row r="886" ht="16.5" customHeight="1"/>
-    <row r="887" ht="16.5" customHeight="1"/>
-    <row r="888" ht="16.5" customHeight="1"/>
-    <row r="889" ht="16.5" customHeight="1"/>
-    <row r="890" ht="16.5" customHeight="1"/>
-    <row r="891" ht="16.5" customHeight="1"/>
-    <row r="892" ht="16.5" customHeight="1"/>
-    <row r="893" ht="16.5" customHeight="1"/>
-    <row r="894" ht="16.5" customHeight="1"/>
-    <row r="895" ht="16.5" customHeight="1"/>
-    <row r="896" ht="16.5" customHeight="1"/>
-    <row r="897" ht="16.5" customHeight="1"/>
-    <row r="898" ht="16.5" customHeight="1"/>
-    <row r="899" ht="16.5" customHeight="1"/>
-    <row r="900" ht="16.5" customHeight="1"/>
-    <row r="901" ht="16.5" customHeight="1"/>
-    <row r="902" ht="16.5" customHeight="1"/>
-    <row r="903" ht="16.5" customHeight="1"/>
-    <row r="904" ht="16.5" customHeight="1"/>
-    <row r="905" ht="16.5" customHeight="1"/>
-    <row r="906" ht="16.5" customHeight="1"/>
-    <row r="907" ht="16.5" customHeight="1"/>
-    <row r="908" ht="16.5" customHeight="1"/>
-    <row r="909" ht="16.5" customHeight="1"/>
-    <row r="910" ht="16.5" customHeight="1"/>
-    <row r="911" ht="16.5" customHeight="1"/>
-    <row r="912" ht="16.5" customHeight="1"/>
-    <row r="913" ht="16.5" customHeight="1"/>
-    <row r="914" ht="16.5" customHeight="1"/>
-    <row r="915" ht="16.5" customHeight="1"/>
-    <row r="916" ht="16.5" customHeight="1"/>
-    <row r="917" ht="16.5" customHeight="1"/>
-    <row r="918" ht="16.5" customHeight="1"/>
-    <row r="919" ht="16.5" customHeight="1"/>
-    <row r="920" ht="16.5" customHeight="1"/>
-    <row r="921" ht="16.5" customHeight="1"/>
-    <row r="922" ht="16.5" customHeight="1"/>
-    <row r="923" ht="16.5" customHeight="1"/>
-    <row r="924" ht="16.5" customHeight="1"/>
-    <row r="925" ht="16.5" customHeight="1"/>
-    <row r="926" ht="16.5" customHeight="1"/>
-    <row r="927" ht="16.5" customHeight="1"/>
-    <row r="928" ht="16.5" customHeight="1"/>
-    <row r="929" ht="16.5" customHeight="1"/>
-    <row r="930" ht="16.5" customHeight="1"/>
-    <row r="931" ht="16.5" customHeight="1"/>
-    <row r="932" ht="16.5" customHeight="1"/>
-    <row r="933" ht="16.5" customHeight="1"/>
-    <row r="934" ht="16.5" customHeight="1"/>
-    <row r="935" ht="16.5" customHeight="1"/>
-    <row r="936" ht="16.5" customHeight="1"/>
-    <row r="937" ht="16.5" customHeight="1"/>
-    <row r="938" ht="16.5" customHeight="1"/>
-    <row r="939" ht="16.5" customHeight="1"/>
-    <row r="940" ht="16.5" customHeight="1"/>
-    <row r="941" ht="16.5" customHeight="1"/>
-    <row r="942" ht="16.5" customHeight="1"/>
-    <row r="943" ht="16.5" customHeight="1"/>
-    <row r="944" ht="16.5" customHeight="1"/>
-    <row r="945" ht="16.5" customHeight="1"/>
-    <row r="946" ht="16.5" customHeight="1"/>
-    <row r="947" ht="16.5" customHeight="1"/>
-    <row r="948" ht="16.5" customHeight="1"/>
-    <row r="949" ht="16.5" customHeight="1"/>
-    <row r="950" ht="16.5" customHeight="1"/>
-    <row r="951" ht="16.5" customHeight="1"/>
-    <row r="952" ht="16.5" customHeight="1"/>
-    <row r="953" ht="16.5" customHeight="1"/>
-    <row r="954" ht="16.5" customHeight="1"/>
-    <row r="955" ht="16.5" customHeight="1"/>
-    <row r="956" ht="16.5" customHeight="1"/>
-    <row r="957" ht="16.5" customHeight="1"/>
-    <row r="958" ht="16.5" customHeight="1"/>
-    <row r="959" ht="16.5" customHeight="1"/>
-    <row r="960" ht="16.5" customHeight="1"/>
-    <row r="961" ht="16.5" customHeight="1"/>
-    <row r="962" ht="16.5" customHeight="1"/>
-    <row r="963" ht="16.5" customHeight="1"/>
-    <row r="964" ht="16.5" customHeight="1"/>
-    <row r="965" ht="16.5" customHeight="1"/>
-    <row r="966" ht="16.5" customHeight="1"/>
-    <row r="967" ht="16.5" customHeight="1"/>
-    <row r="968" ht="16.5" customHeight="1"/>
-    <row r="969" ht="16.5" customHeight="1"/>
-    <row r="970" ht="16.5" customHeight="1"/>
-    <row r="971" ht="16.5" customHeight="1"/>
-    <row r="972" ht="16.5" customHeight="1"/>
-    <row r="973" ht="16.5" customHeight="1"/>
-    <row r="974" ht="16.5" customHeight="1"/>
-    <row r="975" ht="16.5" customHeight="1"/>
-    <row r="976" ht="16.5" customHeight="1"/>
-    <row r="977" ht="16.5" customHeight="1"/>
-    <row r="978" ht="16.5" customHeight="1"/>
-    <row r="979" ht="16.5" customHeight="1"/>
-    <row r="980" ht="16.5" customHeight="1"/>
-    <row r="981" ht="16.5" customHeight="1"/>
-    <row r="982" ht="16.5" customHeight="1"/>
-    <row r="983" ht="16.5" customHeight="1"/>
-    <row r="984" ht="16.5" customHeight="1"/>
-    <row r="985" ht="16.5" customHeight="1"/>
-    <row r="986" ht="16.5" customHeight="1"/>
-    <row r="987" ht="16.5" customHeight="1"/>
-    <row r="988" ht="16.5" customHeight="1"/>
-    <row r="989" ht="16.5" customHeight="1"/>
-    <row r="990" ht="16.5" customHeight="1"/>
-    <row r="991" ht="16.5" customHeight="1"/>
-    <row r="992" ht="16.5" customHeight="1"/>
-    <row r="993" ht="16.5" customHeight="1"/>
-    <row r="994" ht="16.5" customHeight="1"/>
-    <row r="995" ht="16.5" customHeight="1"/>
-    <row r="996" ht="16.5" customHeight="1"/>
-    <row r="997" ht="16.5" customHeight="1"/>
-    <row r="998" ht="16.5" customHeight="1"/>
-    <row r="999" ht="16.5" customHeight="1"/>
-    <row r="1000" ht="16.5" customHeight="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <autoFilter ref="A1:C254" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/patients_update.xlsx
+++ b/data/patients_update.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a19356415/Documents/master_diploma/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E5B292-03CF-4941-BE8B-C740C2402F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$254</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$249</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="316">
   <si>
     <t>patient_description</t>
   </si>
@@ -399,24 +393,6 @@
   </si>
   <si>
     <t>Patient 4 was a 48-year old male without relevant medical history who presented with minimal left-sided paralysis of the arm and leg, brisk reflexes on the left side and severe aphasia in the course of his Covid-19. An unenhanced CT showed bilateral ischemia in vascular territories of the middle and posterior cerebral arteries. There were no options for intra-arterial treatment in this patient. The patient has largely recovered from his Covid-19 and was discharged recently. At the time of discharge, he still suffered from aphasia, but had largely recovered from his minimal left sided paralysis.</t>
-  </si>
-  <si>
-    <t>A 32-year-old white, obese (BMI 30.5 kg/m2) nulliparous woman without any comorbidities or pregnancy complications presented at the ED at 27 weeks of gestation with rhinorrhea, myalgia and fever for the last three days (COVID day 1), and shortness of breath in the last 24 h (COVID day 3). She was afebrile, heart rate (HR) = 100/min, respiratory rate (RR) = 14/min, blood pressure (BP) = 98 × 60 mmHg, oxygen saturation (SpO2) = 98% on room air, fetal heart rate (FHR) = 147/min. The patient was not taking any medication and had normal routine prenatal tests including normal first- and second-trimester fetal anomaly scans. She gave nasopharyngeal swabs for SARS-CoV-2 RT-PCR (positive), D-Dimer (1.47 μg/mL), and C-reactive protein (1.2 mg/dL). After a normal obstetric Doppler US, she was discharged with medication (acetaminophen) for her symptoms. Five days later (COVID day 8) she returned to the ED with abdominal pain and decreased fetal movements. Physical examination and obstetric doppler US were normal; she was discharged. On COVID day 14 she presented again due to absent fetal movements. She was asymptomatic, fetal membranes were intact, and physical examination was normal except for absent FHR. The obstetric US confirmed fetal death, with normal amniotic fluid volume and placenta. She was admitted for induction with misoprostol, and delivered a non-macerated female fetus 7 h later. The amniotic fluid was bloody but no samples were collected. Placental fragments were positve for SARS-CoV-2. The family did not consent to fetal autopsy. Placental histology showed acute chorioamnionitis, extensive deposition of perivillous fibrin and villitis (Fig. 1).</t>
-  </si>
-  <si>
-    <t>PMC7354271</t>
-  </si>
-  <si>
-    <t>A 35-year-old previously healthy, white, overweight (BMI = 25.7 kg/m2), multiparous woman presented at the ED at 21 1/7 weeks of gestation due to fever and dry cough for the last 6 days. Her pregnancy had been uneventful and all routine antenatal laboratory tests and fetal scans were normal. She was afebrile, HR = 85/min, RR = 18/min, BP = 123 × 76 mmHg and SpO2 = 98%, membranes were intact and physical examination was unremarkable except for absent FHR. An obstetric US confirmed fetal death, with normal amniotic fluid volume and placenta. She was admitted (COVID day 6) for induction with misoprostol and delivered a 329 g, non-macerated female fetus 13 h later. Nasopharyngeal RT-PCR swabs collected at admission were positive. The post-mortem exam did not detect any fetal malformations; fetal and placental histology showed signs of acute infection (Fig. 2).</t>
-  </si>
-  <si>
-    <t>A 40-year-old, asymptomatic, healthy, white, obese (BMI = 30.0 kg/m2), nulliparous woman presented with a singleton, in vitro fertilization pregnancy at 38 3/7 weeks of gestation due to reduced fetal movements. Her pregnancy had been uneventful, she was not taking any medication, and she had normal routine laboratory tests and first- and second-trimester fetal anomaly scans. Anal and vaginal swabs collected two weeks earlier were positive for group B Streptococcus. She was afebrile, HR = 93/min, RR = 18/min, BP = 137 × 85 mmHg, SpO2 = 98%, her physical examination was normal and fetal membranes were intact but FHR was absent. Obstetric US confirmed fetal death, with normal amniotic fluid volume and placenta. Two hours later, she delivered a non-macerated male fetus by elective cesarean section due to maternal request. Meconium-stained amniotic fluid was noted and sent for RT-PCR analysis; the result was inconclusive. A maternal nasopharyngeal sample collected at admission was positive on RT-PCR. Placental tissue samples were negative for SARS-CoV-2. Placental histology showed signs of acute chorioamnionitis. The family did not authorize fetal autopsy.</t>
-  </si>
-  <si>
-    <t>A 24-year-old previously healthy, overweight (BMI 26.8 K/m2), white, nulliparous woman presented at 23 4/7 weeks with lower abdominal pain. Her pregnancy had been uneventful and she was not taking any medication. Routine laboratory tests and first- and second-trimester anomaly scans were normal. She had a history of rhinorrhea and cough that had started 20 days before (COVID day 1), with positive RT-PCR results from nasopharyngeal swabs taken at onset of symptoms and 11 days later (COVID day 11), and a negative test 7 days later (COVID day 18). Physical examination was normal; fetal membranes were intact but FHR was absent. The obstetric US confirmed fetal death with normal amniotic fluid volume and placenta. She was admitted for induction with misoprostol and delivered a male fetus 8 h later. Histopathological examination of the placenta indicated acute infection and ischemia. The family did not consent to fetal autopsy.</t>
-  </si>
-  <si>
-    <t>A 30-year-old, previously healthy, overweight (BMI 28.1 K/m2), white, nulliparous woman presented at 30 1/7 weeks with rhinorrhea, fever, headache, anosmia and dysgeusia that had started 6 days earlier (COVID day 1). Her pregnancy had been uneventful, with normal routine laboratory tests and fetal anomaly scans; she was not taking any medication. Maternal physical and laboratory exams, as well as an obstetric US were normal (COVID day 6). She gave a nasopharyngeal swab for RT-PCR testing and was discharged home; the result was positive. Five days later (COVID day 11), she presented again due to decreased fetal movement. She was asymptomatic, physical examination was normal, fetal membranes were intact but FHR was absent. An obstetric US confirmed fetal death, with normal amniotic fluid volume and placenta. She was admitted for induction with misoprostol and delivered by cesarean section 20 h later due to failed induction, with intact membranes. Amniotic fluid was collected before fetal extraction. Amniotic fluid and placental samples were positive for SARS-CoV-2 on RT-PCR. Signs of acute infection were identified on placental histology. The family did not consent to fetal autopsy.</t>
   </si>
   <si>
     <t>60-year-old female with Past history of obstructive sleep apnea (OSA), hypertension and uncontrolled type 2 diabetes mellitus (DM) presented to the emergency department with cough, shortness of breath and fever after exposure to with a COVID-19 patient. She was obese with a Body mass index (BMI) of 36. Computed tomography (CT) of the chest revealed multifocal predominantly peripheral ground-glass opacities. She tested positive for COVID-19, and was admitted for further management. One day after admission she developed sudden onset right facial droop, right-sided weakness and slurred speech with National Institutes of Health Stroke Scale (NIHSS) of 6 (moderate stroke). CT head without contrast showed no intracranial hemorrhage (ICH) and intravenous tissue plasminogen activator (IV tPA) was given. CT Angiogram showed no large vessel occlusion. She eventually improved and Magnetic resonant imaging (MRI) of the brain performed 24 ​h later showed punctate bilateral embolic cortical infarcts (Fig. 1 ). She was still febrile up to 38.9 ​C, and her labs showed low white blood cells (WBC) 2.7 ​K/μL with lymphopenia 0.6 ​K/CUMM, Platelets 179 ​K/μL. She had elevated hypercoagulability markers including D-Dimer &gt; 4000 ​ng/ml and fibrinogen 125 ​mg/dL (normal 200–393 ​mg/dL), in addition to elevated inflammatory markers including C-reactive protein (CRP) of 160 ​mg/L (normal less than 10), ferritin of 602 ​ng/ml (normal 10.0–300) and procalcitonin of 4.2 ​ng/ml (normal 0.00–0.10). Transthoracic echocardiogram (TTE) was normal with no evidence of left ventricular thrombus, normal ejection fraction and left atrial index (LAI). Patient improved to NIHSS of 3 (minor stroke). She was treated with Aspirin and Atorvastatin for secondary stroke prevention, and was discharged to inpatient rehabilitation. Event monitor showed no arrhythmias.
@@ -1232,7 +1208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1294,7 +1270,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1506,20 +1482,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C998"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="A84" sqref="A80:XFD84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.5" customWidth="1"/>
-    <col min="2" max="25" width="7.6640625" customWidth="1"/>
+    <col min="2" max="25" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1541,7 +1517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1552,7 +1528,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1563,7 +1539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +1550,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1585,7 +1561,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1596,7 +1572,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1607,7 +1583,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1618,7 +1594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1629,7 +1605,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1640,7 +1616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1651,7 +1627,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1662,7 +1638,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1673,7 +1649,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1684,7 +1660,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1695,7 +1671,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1706,7 +1682,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1717,7 +1693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1728,7 +1704,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1739,7 +1715,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1750,7 +1726,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1761,7 +1737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1772,7 +1748,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1783,7 +1759,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1794,7 +1770,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -1805,7 +1781,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -1816,7 +1792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -1827,7 +1803,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -1838,7 +1814,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
@@ -1849,7 +1825,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
@@ -1860,7 +1836,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
@@ -1871,7 +1847,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
@@ -1882,7 +1858,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -1893,7 +1869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -1904,7 +1880,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -1915,7 +1891,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
@@ -1926,7 +1902,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
@@ -1937,7 +1913,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
@@ -1948,7 +1924,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
@@ -1959,7 +1935,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
@@ -1970,7 +1946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>54</v>
       </c>
@@ -1981,7 +1957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -1992,7 +1968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>56</v>
       </c>
@@ -2003,7 +1979,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>57</v>
       </c>
@@ -2014,7 +1990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
@@ -2025,7 +2001,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>59</v>
       </c>
@@ -2036,7 +2012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>60</v>
       </c>
@@ -2047,7 +2023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>61</v>
       </c>
@@ -2058,7 +2034,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>62</v>
       </c>
@@ -2069,7 +2045,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>64</v>
       </c>
@@ -2080,7 +2056,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
@@ -2091,7 +2067,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>66</v>
       </c>
@@ -2102,7 +2078,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
@@ -2113,7 +2089,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>69</v>
       </c>
@@ -2124,7 +2100,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>71</v>
       </c>
@@ -2135,7 +2111,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>72</v>
       </c>
@@ -2146,7 +2122,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>73</v>
       </c>
@@ -2157,7 +2133,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>74</v>
       </c>
@@ -2168,7 +2144,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>76</v>
       </c>
@@ -2179,7 +2155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>77</v>
       </c>
@@ -2190,7 +2166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>78</v>
       </c>
@@ -2201,7 +2177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>80</v>
       </c>
@@ -2212,7 +2188,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>81</v>
       </c>
@@ -2223,7 +2199,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>82</v>
       </c>
@@ -2234,7 +2210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>83</v>
       </c>
@@ -2245,7 +2221,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>84</v>
       </c>
@@ -2256,7 +2232,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>86</v>
       </c>
@@ -2267,7 +2243,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>87</v>
       </c>
@@ -2278,7 +2254,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>89</v>
       </c>
@@ -2289,7 +2265,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>90</v>
       </c>
@@ -2300,7 +2276,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>91</v>
       </c>
@@ -2311,7 +2287,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
@@ -2322,7 +2298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>92</v>
       </c>
@@ -2333,7 +2309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>93</v>
       </c>
@@ -2344,7 +2320,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -2355,7 +2331,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>97</v>
       </c>
@@ -2366,7 +2342,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>98</v>
       </c>
@@ -2377,7 +2353,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>99</v>
       </c>
@@ -2388,7 +2364,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>100</v>
       </c>
@@ -2396,10 +2372,10 @@
         <v>101</v>
       </c>
       <c r="C80" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>102</v>
       </c>
@@ -2407,10 +2383,10 @@
         <v>101</v>
       </c>
       <c r="C81" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>103</v>
       </c>
@@ -2418,10 +2394,10 @@
         <v>101</v>
       </c>
       <c r="C82" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>104</v>
       </c>
@@ -2429,373 +2405,373 @@
         <v>101</v>
       </c>
       <c r="C83" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C85" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C86" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C87" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C88" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C89" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C90" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C91" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C92" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C93" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="2" t="s">
+      <c r="B94" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C94" s="2">
+      <c r="B95" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="2" t="s">
+    <row r="96" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C95" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C96" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C97" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C98" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C99" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C100" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C101" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C102" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="2" t="s">
+      <c r="B103" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C103" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C103" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C104" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C105" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C106" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C107" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C108" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C109" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C110" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C111" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C112" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C113" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C114" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C115" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C116" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>146</v>
       </c>
@@ -2803,10 +2779,10 @@
         <v>147</v>
       </c>
       <c r="C117" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>148</v>
       </c>
@@ -2814,10 +2790,10 @@
         <v>147</v>
       </c>
       <c r="C118" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>149</v>
       </c>
@@ -2825,131 +2801,131 @@
         <v>147</v>
       </c>
       <c r="C119" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C120" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C121" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C122" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C123" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C124" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C125" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C125" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C126" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C127" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C128" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C129" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C130" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>163</v>
       </c>
@@ -2957,10 +2933,10 @@
         <v>164</v>
       </c>
       <c r="C131" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>165</v>
       </c>
@@ -2968,10 +2944,10 @@
         <v>164</v>
       </c>
       <c r="C132" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>166</v>
       </c>
@@ -2979,10 +2955,10 @@
         <v>164</v>
       </c>
       <c r="C133" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>167</v>
       </c>
@@ -2990,175 +2966,175 @@
         <v>164</v>
       </c>
       <c r="C134" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C135" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="C136" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C137" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C138" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C139" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C140" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C141" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C142" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C143" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C144" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C145" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="C146" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C147" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C148" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C149" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>187</v>
       </c>
@@ -3166,10 +3142,10 @@
         <v>188</v>
       </c>
       <c r="C150" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>189</v>
       </c>
@@ -3177,87 +3153,87 @@
         <v>188</v>
       </c>
       <c r="C151" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C152" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="C153" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C154" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C155" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C156" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C157" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C158" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>199</v>
       </c>
@@ -3265,10 +3241,10 @@
         <v>200</v>
       </c>
       <c r="C159" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>201</v>
       </c>
@@ -3276,10 +3252,10 @@
         <v>200</v>
       </c>
       <c r="C160" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>202</v>
       </c>
@@ -3287,164 +3263,164 @@
         <v>200</v>
       </c>
       <c r="C161" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C162" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="C163" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C164" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="C165" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C166" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C167" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C168" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C169" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C169" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="2" t="s">
+      <c r="B170" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C170" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C170" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="C171" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C172" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C173" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C174" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C175" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>220</v>
       </c>
@@ -3452,10 +3428,10 @@
         <v>221</v>
       </c>
       <c r="C176" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>222</v>
       </c>
@@ -3463,428 +3439,428 @@
         <v>221</v>
       </c>
       <c r="C177" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C178" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="C179" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C180" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C181" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C182" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C183" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C184" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C185" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C185" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="2" t="s">
+      <c r="B186" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="C186" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C187" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C188" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C189" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="C190" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C191" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C192" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="C193" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C194" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C194" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C195" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="C196" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C197" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="C198" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C199" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C200" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C201" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C202" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C203" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="C204" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C205" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C206" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C207" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="C208" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C209" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C210" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C211" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="C212" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C213" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C214" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C215" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>272</v>
       </c>
@@ -3892,10 +3868,10 @@
         <v>273</v>
       </c>
       <c r="C216" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>274</v>
       </c>
@@ -3903,10 +3879,10 @@
         <v>273</v>
       </c>
       <c r="C217" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>275</v>
       </c>
@@ -3914,10 +3890,10 @@
         <v>273</v>
       </c>
       <c r="C218" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>276</v>
       </c>
@@ -3925,65 +3901,65 @@
         <v>273</v>
       </c>
       <c r="C219" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C220" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="C221" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C222" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C223" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C224" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>283</v>
       </c>
@@ -3991,10 +3967,10 @@
         <v>284</v>
       </c>
       <c r="C225" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>285</v>
       </c>
@@ -4002,10 +3978,10 @@
         <v>284</v>
       </c>
       <c r="C226" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>286</v>
       </c>
@@ -4013,10 +3989,10 @@
         <v>284</v>
       </c>
       <c r="C227" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>287</v>
       </c>
@@ -4024,1041 +4000,986 @@
         <v>284</v>
       </c>
       <c r="C228" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C229" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="C230" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C231" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="C232" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C233" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C234" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="C235" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C236" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C237" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>300</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C238" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="C239" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>303</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C240" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>304</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C241" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="C242" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C243" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="C244" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C245" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C246" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C247" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C248" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>315</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C249" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C250" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C251" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C252" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C253" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C254" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="282" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="283" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:C254" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C249"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/data/patients_update.xlsx
+++ b/data/patients_update.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$249</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$248</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="314">
   <si>
     <t>patient_description</t>
   </si>
@@ -468,20 +468,6 @@
   </si>
   <si>
     <t>A 58-year-old woman, known to have DM, HTN, chronic kidney disease, hypothyroidism, and bronchial asthma, was diagnosed with stage IVB diffuse large B cell lymphoma (DLBCL), in May 2019. She received six cycles of reduced dose R-CHOP (Rituximab, Cyclophosphamide, Doxorubicin, Vincristine, and Prednisone) and achieved complete remission. She relapsed three months after finishing therapy. She then received three cycles of Rituximab-ESHAP followed by myeloablative BEAM auto-transplant after achieving partial remission with RESHAP. Her transplant was in mid-March 2020. In June 2020, she developed fever and shortness of breath; she tested positive for SARS-Cov2 by PCR; she reported contact with a positive case. She was treated with azithromycin, HCQ, and meropenem and recovered well. Repeat nasal SARS-Cov2 PCR on August 20, 2020, was negative, but the SARS-Cov2 total antibody test was not done.</t>
-  </si>
-  <si>
-    <t>A 23-year-old gravida 2, para 1, with no known medical history presented at 38 weeks of gestation with spontaneous rupture of membranes, contractions, and blood-tinged discharge. She reported uncomplicated prenatal care; however, no records could be obtained.
-On admission, the patient's vital signs were within normal limits. She was 8 cm dilated on the cervical exam. Due to her desire for pain control, and in anticipation of expeditious delivery in a multiparous patient, anesthesia was consulted for neuraxial analgesia. A review of her obstetric history revealed a prior uncomplicated vaginal delivery at 38 weeks of gestation. Laboratory studies from that admission revealed hemoglobin of 12.5 g/dL and platelet count of 223 K/μL. She had no known history of thrombocytopenia, so an epidural was placed prior to obtaining complete blood count results, which was in accordance with hospital policy.
-Laboratory testing (Table 1) resulted afterwards and was notable for hemoglobin of 7.1 g/dL, hematocrit of 22.1%, mean corpuscular volume of 74.7 fL, and platelets of &lt;10 K/μL. Upon further questioning, the patient reported a history of ecchymosis and an episode of epistaxis 2 weeks prior. She reported no history of heavy menstrual bleeding, hemarthrosis, or bleeding gums. On examination, no pallor, ecchymosis, or organomegaly was detected. There was a concern for hemodilution of the blood sample due to the location of the blood draw or laboratory error, so the blood was redrawn.
-While awaiting repeat laboratory results, the patient delivered a male neonate by spontaneous vaginal delivery. Neonatal laboratory studies were normal with a hemoglobin of 18.8 g/dL and platelet count of 245 K/μL. Total quantitative blood loss during delivery was 400 mL. Epidural was removed immediately post delivery. Subsequently, repeat laboratory tests confirmed the initial results, with hemoglobin of 5.6 g/dL, hematocrit of 17.7%, and platelets of &lt;10 K/μL. Further laboratory studies (Table 1) showed no marked abnormalities in coagulation profile or hepatic panel results. Iron and B12 deficiencies were noted.
-Peripheral blood smear (Figure 1) revealed microcytic anemia with anisocytosis, polychromasia, and thrombocytopenia. Teardrop cells, reticulocytes, and small spherocytes were present. No overt schistocytes or fragmentation of red blood cells was noted. There was no concern for thrombotic thrombocytopenic purpura.
-Antibody screen was positive for warm autoantibodies. DAT was positive for anti-immunoglobulin G and anti-complement antibodies. The diagnosis of ES was made based on the positive DAT in the setting of hemolytic anemia.
-Hematology was consulted, and transfusion of 2 units of red blood cells and 1 pack of platelets was recommended. The patient also received 1 gram of intravenous iron dextran. She was treated with oral dexamethasone, 40 mg daily for 4 days, with a subsequent rise in platelets to 55 K/μL (Figure 2). She was discharged on postpartum day 4 with a plan for weekly outpatient laboratory studies and oral prednisone (60 mg daily). She was also started on folate (1 mg daily) and B12 (1000 mcg monthly) supplementation.
-On postpartum day 9, follow-up laboratory studies revealed a platelet count of &lt;10 K/μL. The patient received a second 4-day course of oral dexamethasone, 40 mg daily, with a good response. Her platelet count rose to 55 K/μL. On postpartum day 18, laboratory results showed the platelet count decreased to 16 K/μL, and she received a third course of dexamethasone, 20 mg daily for 4 days, and intravenous immunoglobulin (IVIG), 1 mg/kg for 2 days. Repeat DAT remained positive for warm autoantibodies. Given the poor response to steroids, rituximab therapy was initiated. On postpartum days 21 and 28, the patient received 2 doses of rituximab (375 mg/m2 weekly).
-On postpartum day 34, the patient presented to the emergency department with chest pain and shortness of breath. The evaluation was notable for elevated D-dimer, and a computed tomography scan was obtained due to suspicion of pulmonary embolism. Imaging revealed ground-glass opacities and an acute pulmonary embolism (Figure 3). Notably, lower extremity dopplers during initial admission showed no venous thromboses. The patient was started on anticoagulation with high-intensity heparin infusion. The patient reported that her mother had tested positive for the recently emerged novel coronavirus (COVID-19). Given her symptoms, sick contact status, and imaging findings, the patient was tested for COVID-19. Nasopharyngeal specimen testing for detection of the 2019 novel coronavirus ribonucleic acid by real-time polymerase chain reaction was positive. The platelet count on readmission was 131 K/μL and remained stable over 200 K/μL. Rituximab infusion was held for several weeks due to active COVID-19 infection and stable platelet count.</t>
-  </si>
-  <si>
-    <t>PMC7441452</t>
   </si>
   <si>
     <t>A 58-year-old female with pancreatic neuroendocrine tumor, who had pancreatoduodenectomy (G2; pT2pN1cM0) in January 2018, presented to our Nuclear Medicine Department to evaluate clinical recurrence with 68-Gallium somatostatin receptor-targeted ligand positron emission tomography/computed tomography (68 Ga-DOTATOC PET/CT) and 18F-FDG PET/CT.
@@ -1483,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C993"/>
+  <dimension ref="A1:C992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A84" sqref="A80:XFD84"/>
+      <selection activeCell="A96" sqref="A96:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2548,7 +2534,7 @@
         <v>121</v>
       </c>
       <c r="C96" s="2">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2556,76 +2542,76 @@
         <v>122</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C97" s="2">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C98" s="2">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C99" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C100" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C101" s="2">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C102" s="2">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C103" s="2">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2633,43 +2619,43 @@
         <v>130</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C104" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C105" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C106" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C107" s="2">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2677,43 +2663,43 @@
         <v>135</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C108" s="2">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C109" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C110" s="2">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C111" s="2">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2721,29 +2707,29 @@
         <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C112" s="2">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C113" s="2">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C114" s="2">
         <v>63</v>
@@ -2751,24 +2737,24 @@
     </row>
     <row r="115" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C115" s="2">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C116" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2776,32 +2762,32 @@
         <v>146</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C117" s="2">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C118" s="2">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C119" s="2">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2809,65 +2795,65 @@
         <v>150</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C120" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C121" s="2">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C122" s="2">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C123" s="2">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C124" s="2">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C125" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2875,54 +2861,54 @@
         <v>157</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C126" s="2">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C127" s="2">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C128" s="2">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C129" s="2">
-        <v>81</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="C130" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2930,43 +2916,43 @@
         <v>163</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C131" s="2">
-        <v>17</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C132" s="2">
-        <v>0.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C133" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="C134" s="2">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2974,7 +2960,7 @@
         <v>168</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C135" s="2">
         <v>62</v>
@@ -2982,32 +2968,32 @@
     </row>
     <row r="136" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C136" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C137" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C138" s="2">
         <v>62</v>
@@ -3018,21 +3004,21 @@
         <v>173</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C139" s="2">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="C140" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3040,43 +3026,43 @@
         <v>176</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C141" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C142" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C143" s="2">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="C144" s="2">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3084,54 +3070,54 @@
         <v>181</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C145" s="2">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C146" s="2">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C147" s="2">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C148" s="2">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="C149" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3139,21 +3125,21 @@
         <v>187</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C150" s="2">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="C151" s="2">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3161,18 +3147,18 @@
         <v>190</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C152" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="C153" s="2">
         <v>67</v>
@@ -3183,54 +3169,54 @@
         <v>193</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C154" s="2">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C155" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C156" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C157" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="C158" s="2">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3238,32 +3224,32 @@
         <v>199</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C159" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C160" s="2">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="C161" s="2">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3271,18 +3257,18 @@
         <v>203</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C162" s="2">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="C163" s="2">
         <v>40</v>
@@ -3293,76 +3279,76 @@
         <v>206</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C164" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C165" s="2">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C166" s="2">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C167" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C168" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C169" s="2">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="C170" s="2">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3370,54 +3356,54 @@
         <v>214</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C171" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C172" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C173" s="2">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C174" s="2">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="C175" s="2">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3425,21 +3411,21 @@
         <v>220</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C176" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="C177" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3447,21 +3433,21 @@
         <v>223</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C178" s="2">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="C179" s="2">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3469,65 +3455,65 @@
         <v>226</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C180" s="2">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C181" s="2">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C182" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C183" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C184" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="C185" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3535,32 +3521,32 @@
         <v>233</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C186" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C187" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="C188" s="2">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3568,32 +3554,32 @@
         <v>237</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C189" s="2">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C190" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="C191" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3601,32 +3587,32 @@
         <v>241</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C192" s="2">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C193" s="2">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="C194" s="2">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3634,21 +3620,21 @@
         <v>245</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C195" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="C196" s="2">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3656,21 +3642,21 @@
         <v>248</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C197" s="2">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="C198" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,43 +3664,43 @@
         <v>251</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C199" s="2">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C200" s="2">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C201" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="C202" s="2">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3722,43 +3708,43 @@
         <v>256</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C203" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C204" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C205" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="C206" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3766,43 +3752,43 @@
         <v>261</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C207" s="2">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C208" s="2">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C209" s="2">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="C210" s="2">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3810,54 +3796,54 @@
         <v>266</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C211" s="2">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C212" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C213" s="2">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C214" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="C215" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3865,43 +3851,43 @@
         <v>272</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C216" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C217" s="2">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C218" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="C219" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3909,54 +3895,54 @@
         <v>277</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C220" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C221" s="2">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C222" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C223" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="C224" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3964,7 +3950,7 @@
         <v>283</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C225" s="2">
         <v>57</v>
@@ -3972,35 +3958,35 @@
     </row>
     <row r="226" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C226" s="2">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C227" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="C228" s="2">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4008,7 +3994,7 @@
         <v>288</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C229" s="2">
         <v>53</v>
@@ -4016,13 +4002,13 @@
     </row>
     <row r="230" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="C230" s="2">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4030,32 +4016,32 @@
         <v>291</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C231" s="2">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C232" s="2">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="C233" s="2">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4063,43 +4049,43 @@
         <v>295</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C234" s="2">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C235" s="2">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C236" s="2">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="C237" s="2">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4107,32 +4093,32 @@
         <v>300</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C238" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C239" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="C240" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4140,21 +4126,21 @@
         <v>304</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C241" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="C242" s="2">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4162,32 +4148,32 @@
         <v>307</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C243" s="2">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C244" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="C245" s="2">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4195,45 +4181,35 @@
         <v>311</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C246" s="2">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C247" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C248" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C249" s="2">
         <v>63</v>
       </c>
     </row>
+    <row r="249" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="250" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="251" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="252" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4266,8 +4242,8 @@
     <row r="279" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="280" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="281" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="284" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="285" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="286" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4977,9 +4953,8 @@
     <row r="990" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="991" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="992" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:C249"/>
+  <autoFilter ref="A1:C248"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
